--- a/CompactionAnalyzer/Analysis_output/ExampleCell/Cell/results_total.xlsx
+++ b/CompactionAnalyzer/Analysis_output/ExampleCell/Cell/results_total.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Orientation  (weighted by coherency)</t>
+          <t>Orientation (weighted by coherency)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,28 +481,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05682106235073196</v>
+        <v>0.05799915444417655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0567907432013139</v>
+        <v>0.05830298823173422</v>
       </c>
       <c r="D2" t="n">
-        <v>40.85081286392791</v>
+        <v>38.83229075473523</v>
       </c>
       <c r="E2" t="n">
-        <v>37.42756988181082</v>
+        <v>34.79844933535671</v>
       </c>
       <c r="F2" t="n">
-        <v>34.9533312369246</v>
+        <v>32.74336141998732</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09801878278091333</v>
+        <v>0.1563487825531236</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2663886104375336</v>
+        <v>0.3134749441923249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3091030319438647</v>
+        <v>0.3536906760701445</v>
       </c>
     </row>
   </sheetData>
